--- a/phase5/charts.xlsx
+++ b/phase5/charts.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>percent</t>
   </si>
@@ -33,6 +33,21 @@
   </si>
   <si>
     <t>window size</t>
+  </si>
+  <si>
+    <t>phase 3</t>
+  </si>
+  <si>
+    <t>phase 4</t>
+  </si>
+  <si>
+    <t>phase 5</t>
+  </si>
+  <si>
+    <t>5% loss</t>
+  </si>
+  <si>
+    <t>10%error</t>
   </si>
 </sst>
 </file>
@@ -347,15 +362,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:H9"/>
+  <dimension ref="C3:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>0</v>
       </c>
@@ -368,8 +383,17 @@
       <c r="H3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="K3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C4">
         <v>1</v>
       </c>
@@ -382,8 +406,17 @@
       <c r="H4">
         <v>17240</v>
       </c>
-    </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="J4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4">
+        <v>15743</v>
+      </c>
+      <c r="M4">
+        <v>17336</v>
+      </c>
+    </row>
+    <row r="5" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C5">
         <v>2</v>
       </c>
@@ -396,8 +429,17 @@
       <c r="H5">
         <v>15091</v>
       </c>
-    </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="J5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5">
+        <v>28697</v>
+      </c>
+      <c r="M5">
+        <v>29538</v>
+      </c>
+    </row>
+    <row r="6" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C6">
         <v>5</v>
       </c>
@@ -411,7 +453,7 @@
         <v>14869</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C7">
         <v>10</v>
       </c>
@@ -425,7 +467,7 @@
         <v>13089</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C8">
         <v>20</v>
       </c>
@@ -439,7 +481,7 @@
         <v>36111</v>
       </c>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:13" x14ac:dyDescent="0.2">
       <c r="G9">
         <v>50</v>
       </c>

--- a/phase5/charts.xlsx
+++ b/phase5/charts.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>percent</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>10%error</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -409,6 +412,9 @@
       <c r="J4" t="s">
         <v>6</v>
       </c>
+      <c r="K4" t="s">
+        <v>8</v>
+      </c>
       <c r="L4">
         <v>15743</v>
       </c>
@@ -431,6 +437,9 @@
       </c>
       <c r="J5" t="s">
         <v>7</v>
+      </c>
+      <c r="K5">
+        <v>113</v>
       </c>
       <c r="L5">
         <v>28697</v>

--- a/phase5/charts.xlsx
+++ b/phase5/charts.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25520" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25520" windowHeight="15540" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>percent</t>
   </si>
@@ -48,9 +50,6 @@
   </si>
   <si>
     <t>10%error</t>
-  </si>
-  <si>
-    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -100,6 +99,3248 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Chart 1,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Phase 5 Performance</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.123834039975772"/>
+          <c:y val="0.132548387096774"/>
+          <c:w val="0.849138932997201"/>
+          <c:h val="0.65458572517145"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>transmission time</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$4:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>27596.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29521.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35305.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48769.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76423.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-2087876512"/>
+        <c:axId val="-2088189008"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2087876512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000"/>
+                  <a:t>Percent Loss</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2088189008"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2088189008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2087876512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.342825314715078"/>
+          <c:y val="0.20040284480569"/>
+          <c:w val="0.222873279093752"/>
+          <c:h val="0.0608874777749555"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Chart</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 2, performance with fixed % loss</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.124481030780243"/>
+          <c:y val="0.119101449275362"/>
+          <c:w val="0.848350735154971"/>
+          <c:h val="0.69832340522652"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Transmission Time</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$E$7:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$F$7:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>17240.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15091.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14869.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13089.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36111.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37369.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-2090699024"/>
+        <c:axId val="-2090151200"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2090699024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000"/>
+                  <a:t>Window Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2090151200"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2090151200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2090699024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.668766897868174"/>
+          <c:y val="0.609057628665982"/>
+          <c:w val="0.230909090909091"/>
+          <c:h val="0.054710487276047"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Chart</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 3, Phase 3, 4, and 5 performance </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.094386208331888"/>
+          <c:y val="0.13003164556962"/>
+          <c:w val="0.882706302681328"/>
+          <c:h val="0.705448021528954"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$D$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5% loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$E$8:$G$8</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>phase 3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>phase 4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>phase 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$E$9:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="1">
+                  <c:v>15743.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17336.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$D$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10%error</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$E$8:$G$8</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>phase 3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>phase 4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>phase 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$E$10:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>113.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28697.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29538.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-2086961120"/>
+        <c:axId val="-2086983328"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2086961120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000"/>
+                  <a:t>Phase</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.487994866280481"/>
+              <c:y val="0.869334944682548"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2086983328"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2086983328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2086961120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.492162059037774"/>
+          <c:y val="0.424445828765075"/>
+          <c:w val="0.230653716743557"/>
+          <c:h val="0.0597313864247982"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>793750</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -365,140 +3606,188 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:M9"/>
+  <dimension ref="C3:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>0</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M3" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
         <v>27596</v>
       </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>17240</v>
-      </c>
-      <c r="J4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" t="s">
-        <v>8</v>
-      </c>
-      <c r="L4">
-        <v>15743</v>
-      </c>
-      <c r="M4">
-        <v>17336</v>
-      </c>
     </row>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
         <v>29521</v>
       </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="H5">
-        <v>15091</v>
-      </c>
-      <c r="J5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5">
-        <v>113</v>
-      </c>
-      <c r="L5">
-        <v>28697</v>
-      </c>
-      <c r="M5">
-        <v>29538</v>
-      </c>
     </row>
-    <row r="6" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6">
         <v>35305</v>
       </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
-      <c r="H6">
-        <v>14869</v>
-      </c>
     </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C7">
         <v>10</v>
       </c>
       <c r="D7">
         <v>48769</v>
       </c>
-      <c r="G7">
-        <v>10</v>
-      </c>
-      <c r="H7">
-        <v>13089</v>
-      </c>
     </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C8">
         <v>20</v>
       </c>
       <c r="D8">
         <v>76423</v>
       </c>
-      <c r="G8">
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E6:F12"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="6" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>17240</v>
+      </c>
+    </row>
+    <row r="8" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>15091</v>
+      </c>
+    </row>
+    <row r="9" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>14869</v>
+      </c>
+    </row>
+    <row r="10" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>13089</v>
+      </c>
+    </row>
+    <row r="11" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E11">
         <v>20</v>
       </c>
-      <c r="H8">
+      <c r="F11">
         <v>36111</v>
       </c>
     </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="G9">
+    <row r="12" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E12">
         <v>50</v>
       </c>
-      <c r="H9">
+      <c r="F12">
         <v>37369</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D8:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="8" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <v>15743</v>
+      </c>
+      <c r="G9">
+        <v>17336</v>
+      </c>
+    </row>
+    <row r="10" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>113</v>
+      </c>
+      <c r="F10">
+        <v>28697</v>
+      </c>
+      <c r="G10">
+        <v>29538</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/phase5/charts.xlsx
+++ b/phase5/charts.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26207"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Elie/Desktop/networkDesign/phase5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Grant\VMShared\networkDesign\phase5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25520" windowHeight="15540" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="75" yWindow="465" windowWidth="25515" windowHeight="15540" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Phase 5 Loss Perfomance" sheetId="1" r:id="rId1"/>
+    <sheet name="Phase 5 Window Size Performance" sheetId="2" r:id="rId2"/>
+    <sheet name="Phase 3-5 Performance" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,9 +27,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
-  <si>
-    <t>percent</t>
-  </si>
   <si>
     <t>time (ms)</t>
   </si>
@@ -49,7 +46,10 @@
     <t>5% loss</t>
   </si>
   <si>
-    <t>10%error</t>
+    <t>percent loss</t>
+  </si>
+  <si>
+    <t>10% error</t>
   </si>
 </sst>
 </file>
@@ -85,8 +85,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -96,6 +97,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -136,11 +140,20 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Chart 1,</a:t>
+              <a:t>Chart 1:</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
               <a:t> Phase 5 Performance</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Time VS Loss</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -185,7 +198,7 @@
           <c:x val="0.123834039975772"/>
           <c:y val="0.132548387096774"/>
           <c:w val="0.849138932997201"/>
-          <c:h val="0.65458572517145"/>
+          <c:h val="0.65458572517144997"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -211,24 +224,24 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$4:$D$8</c:f>
+              <c:f>'Phase 5 Loss Perfomance'!$C$3:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>27596.0</c:v>
+                  <c:v>27596</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29521.0</c:v>
+                  <c:v>29521</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35305.0</c:v>
+                  <c:v>35305</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>48769.0</c:v>
+                  <c:v>48769</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>76423.0</c:v>
+                  <c:v>76423</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -244,11 +257,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2087876512"/>
-        <c:axId val="-2088189008"/>
+        <c:axId val="1214195248"/>
+        <c:axId val="1214186000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2087876512"/>
+        <c:axId val="1214195248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -346,7 +359,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2088189008"/>
+        <c:crossAx val="1214186000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -354,7 +367,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2088189008"/>
+        <c:axId val="1214186000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -461,7 +474,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2087876512"/>
+        <c:crossAx val="1214195248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -479,10 +492,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.342825314715078"/>
-          <c:y val="0.20040284480569"/>
-          <c:w val="0.222873279093752"/>
-          <c:h val="0.0608874777749555"/>
+          <c:x val="0.14206767477928894"/>
+          <c:y val="0.14643469566304212"/>
+          <c:w val="0.22287327909375201"/>
+          <c:h val="6.0887477774955498E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -590,9 +603,17 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> 2, performance with fixed % loss</a:t>
+              <a:t> 2: Performance with Fixed 5% Loss</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Time VS Window Size</a:t>
+            </a:r>
           </a:p>
         </c:rich>
       </c:tx>
@@ -635,8 +656,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.124481030780243"/>
           <c:y val="0.119101449275362"/>
-          <c:w val="0.848350735154971"/>
-          <c:h val="0.69832340522652"/>
+          <c:w val="0.84835073515497095"/>
+          <c:h val="0.69832340522652003"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -662,54 +683,54 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$E$7:$E$12</c:f>
+              <c:f>'Phase 5 Window Size Performance'!$B$3:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$F$7:$F$12</c:f>
+              <c:f>'Phase 5 Window Size Performance'!$C$3:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>17240.0</c:v>
+                  <c:v>17434</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15091.0</c:v>
+                  <c:v>16409</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14869.0</c:v>
+                  <c:v>14851</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13089.0</c:v>
+                  <c:v>13613</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36111.0</c:v>
+                  <c:v>15506</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>37369.0</c:v>
+                  <c:v>17130</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -725,11 +746,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2090699024"/>
-        <c:axId val="-2090151200"/>
+        <c:axId val="1214195792"/>
+        <c:axId val="1214196880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2090699024"/>
+        <c:axId val="1214195792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -828,7 +849,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2090151200"/>
+        <c:crossAx val="1214196880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -836,9 +857,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2090151200"/>
+        <c:axId val="1214196880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="12000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -943,7 +965,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2090699024"/>
+        <c:crossAx val="1214195792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -961,10 +983,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.668766897868174"/>
-          <c:y val="0.609057628665982"/>
-          <c:w val="0.230909090909091"/>
-          <c:h val="0.054710487276047"/>
+          <c:x val="0.12899412431400623"/>
+          <c:y val="0.62061002302510027"/>
+          <c:w val="0.23090909090909101"/>
+          <c:h val="5.4710487276047E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1072,7 +1094,16 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> 3, Phase 3, 4, and 5 performance </a:t>
+              <a:t> 3: Phase 3, 4, and 5 performance</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Time VS Phase</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1114,21 +1145,21 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.094386208331888"/>
-          <c:y val="0.13003164556962"/>
-          <c:w val="0.882706302681328"/>
-          <c:h val="0.705448021528954"/>
+          <c:x val="9.4386208331888002E-2"/>
+          <c:y val="0.13003164556961999"/>
+          <c:w val="0.88270630268132799"/>
+          <c:h val="0.70544802152895403"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
-        <c:grouping val="stacked"/>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$D$9</c:f>
+              <c:f>'Phase 3-5 Performance'!$C$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1149,9 +1180,23 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="28575" cap="rnd">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet3!$E$8:$G$8</c:f>
+              <c:f>'Phase 3-5 Performance'!$D$2:$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1168,15 +1213,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$E$9:$G$9</c:f>
+              <c:f>'Phase 3-5 Performance'!$D$3:$F$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="1">
-                  <c:v>15743.0</c:v>
+                  <c:v>15743</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17336.0</c:v>
+                  <c:v>17336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1188,11 +1233,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$D$10</c:f>
+              <c:f>'Phase 3-5 Performance'!$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>10%error</c:v>
+                  <c:v>10% error</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1209,9 +1254,23 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="28575" cap="rnd">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet3!$E$8:$G$8</c:f>
+              <c:f>'Phase 3-5 Performance'!$D$2:$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1228,18 +1287,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$E$10:$G$10</c:f>
+              <c:f>'Phase 3-5 Performance'!$D$4:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>113.0</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28697.0</c:v>
+                  <c:v>28697</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29538.0</c:v>
+                  <c:v>29538</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1255,11 +1314,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2086961120"/>
-        <c:axId val="-2086983328"/>
+        <c:axId val="1214190896"/>
+        <c:axId val="1214186544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2086961120"/>
+        <c:axId val="1214190896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1296,7 +1355,7 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="0.487994866280481"/>
-              <c:y val="0.869334944682548"/>
+              <c:y val="0.86933494468254802"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1365,7 +1424,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2086983328"/>
+        <c:crossAx val="1214186544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1373,7 +1432,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2086983328"/>
+        <c:axId val="1214186544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1480,7 +1539,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2086961120"/>
+        <c:crossAx val="1214190896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1498,10 +1557,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.492162059037774"/>
-          <c:y val="0.424445828765075"/>
-          <c:w val="0.230653716743557"/>
-          <c:h val="0.0597313864247982"/>
+          <c:x val="0.11169065987963629"/>
+          <c:y val="0.15143007124109484"/>
+          <c:w val="0.22447519817598555"/>
+          <c:h val="5.3571803524559439E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3242,16 +3301,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3277,16 +3336,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>3175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>793750</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3312,16 +3371,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3606,59 +3665,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:D8"/>
+  <dimension ref="B2:C7"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C3" t="s">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3">
         <v>1</v>
       </c>
+      <c r="C3">
+        <v>27596</v>
+      </c>
     </row>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>2</v>
+      </c>
       <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>27596</v>
+        <v>29521</v>
       </c>
     </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>5</v>
+      </c>
       <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>29521</v>
+        <v>35305</v>
       </c>
     </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>10</v>
+      </c>
       <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>35305</v>
+        <v>48769</v>
       </c>
     </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>20</v>
+      </c>
       <c r="C7">
-        <v>10</v>
-      </c>
-      <c r="D7">
-        <v>48769</v>
-      </c>
-    </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C8">
-        <v>20</v>
-      </c>
-      <c r="D8">
         <v>76423</v>
       </c>
     </row>
@@ -3670,68 +3732,119 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E6:F12"/>
+  <dimension ref="B2:C15"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="6" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E6" t="s">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>17434</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4">
         <v>2</v>
       </c>
-      <c r="F6" t="s">
+      <c r="C4" s="1">
+        <v>16409</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>14851</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1">
+        <v>13613</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1">
+        <v>15506</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>50</v>
+      </c>
+      <c r="C8">
+        <v>17130</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10">
         <v>1</v>
       </c>
+      <c r="C10" s="1">
+        <v>17434</v>
+      </c>
     </row>
-    <row r="7" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>17240</v>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>16409</v>
       </c>
     </row>
-    <row r="8" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>15091</v>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1">
+        <v>14851</v>
       </c>
     </row>
-    <row r="9" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E9">
-        <v>5</v>
-      </c>
-      <c r="F9">
-        <v>14869</v>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1">
+        <v>13613</v>
       </c>
     </row>
-    <row r="10" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E10">
-        <v>10</v>
-      </c>
-      <c r="F10">
-        <v>13089</v>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>20</v>
+      </c>
+      <c r="C14" s="1">
+        <v>15506</v>
       </c>
     </row>
-    <row r="11" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E11">
-        <v>20</v>
-      </c>
-      <c r="F11">
-        <v>36111</v>
-      </c>
-    </row>
-    <row r="12" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E12">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15">
         <v>50</v>
       </c>
-      <c r="F12">
-        <v>37369</v>
+      <c r="C15">
+        <v>17130</v>
       </c>
     </row>
   </sheetData>
@@ -3742,52 +3855,56 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D8:G10"/>
+  <dimension ref="C2:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView showRuler="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="2.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="8" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="E8" t="s">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="G8" t="s">
+    </row>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
+      <c r="E3">
+        <v>15743</v>
+      </c>
+      <c r="F3">
+        <v>17336</v>
+      </c>
     </row>
-    <row r="9" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9">
-        <v>15743</v>
-      </c>
-      <c r="G9">
-        <v>17336</v>
-      </c>
-    </row>
-    <row r="10" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D10" t="s">
+    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="E10">
+      <c r="D4">
         <v>113</v>
       </c>
-      <c r="F10">
+      <c r="E4">
         <v>28697</v>
       </c>
-      <c r="G10">
+      <c r="F4">
         <v>29538</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>